--- a/test_data/royal_data.xlsx
+++ b/test_data/royal_data.xlsx
@@ -66,7 +66,7 @@
     <t>Baruah</t>
   </si>
   <si>
-    <t>chet234@gmail.com</t>
+    <t>chet516@gmail.com</t>
   </si>
   <si>
     <t>chet123a</t>
